--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H2">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J2">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N2">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q2">
-        <v>706.4172821122003</v>
+        <v>876.0376008744839</v>
       </c>
       <c r="R2">
-        <v>706.4172821122003</v>
+        <v>7884.338407870356</v>
       </c>
       <c r="S2">
-        <v>0.1793659336450413</v>
+        <v>0.1876240211279898</v>
       </c>
       <c r="T2">
-        <v>0.1793659336450413</v>
+        <v>0.1876240211279898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H3">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J3">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N3">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q3">
-        <v>70.98982151225216</v>
+        <v>84.15419816942533</v>
       </c>
       <c r="R3">
-        <v>70.98982151225216</v>
+        <v>757.387783524828</v>
       </c>
       <c r="S3">
-        <v>0.01802497749880579</v>
+        <v>0.0180235974341603</v>
       </c>
       <c r="T3">
-        <v>0.01802497749880579</v>
+        <v>0.0180235974341603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.4480402798259</v>
+        <v>15.66920033333333</v>
       </c>
       <c r="H4">
-        <v>13.4480402798259</v>
+        <v>47.00760099999999</v>
       </c>
       <c r="I4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="J4">
-        <v>0.2756452863639388</v>
+        <v>0.2925937299273087</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N4">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q4">
-        <v>308.1981172955789</v>
+        <v>405.9611469138079</v>
       </c>
       <c r="R4">
-        <v>308.1981172955789</v>
+        <v>3653.65032222427</v>
       </c>
       <c r="S4">
-        <v>0.07825437522009167</v>
+        <v>0.0869461113651586</v>
       </c>
       <c r="T4">
-        <v>0.07825437522009167</v>
+        <v>0.0869461113651586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H5">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J5">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N5">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q5">
-        <v>860.893585072805</v>
+        <v>921.1873906699562</v>
       </c>
       <c r="R5">
-        <v>860.893585072805</v>
+        <v>8290.686516029606</v>
       </c>
       <c r="S5">
-        <v>0.2185889071030467</v>
+        <v>0.197293908705936</v>
       </c>
       <c r="T5">
-        <v>0.2185889071030467</v>
+        <v>0.197293908705936</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H6">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J6">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N6">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q6">
-        <v>86.5135713591651</v>
+        <v>88.4913914062947</v>
       </c>
       <c r="R6">
-        <v>86.5135713591651</v>
+        <v>796.4225226566523</v>
       </c>
       <c r="S6">
-        <v>0.02196660230820754</v>
+        <v>0.01895250920084501</v>
       </c>
       <c r="T6">
-        <v>0.02196660230820754</v>
+        <v>0.01895250920084501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.3888000787387</v>
+        <v>16.47676966666667</v>
       </c>
       <c r="H7">
-        <v>16.3888000787387</v>
+        <v>49.43030900000001</v>
       </c>
       <c r="I7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282969</v>
       </c>
       <c r="J7">
-        <v>0.3359222159411733</v>
+        <v>0.3076736139282968</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N7">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q7">
-        <v>375.593560392451</v>
+        <v>426.8838338281489</v>
       </c>
       <c r="R7">
-        <v>375.593560392451</v>
+        <v>3841.95450445334</v>
       </c>
       <c r="S7">
-        <v>0.09536670652991899</v>
+        <v>0.09142719602151583</v>
       </c>
       <c r="T7">
-        <v>0.09536670652991899</v>
+        <v>0.09142719602151582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H8">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J8">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N8">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q8">
-        <v>995.4657049472909</v>
+        <v>1196.81593028982</v>
       </c>
       <c r="R8">
-        <v>995.4657049472909</v>
+        <v>10771.34337260838</v>
       </c>
       <c r="S8">
-        <v>0.2527580229147488</v>
+        <v>0.2563262320782336</v>
       </c>
       <c r="T8">
-        <v>0.2527580229147488</v>
+        <v>0.2563262320782336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H9">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J9">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N9">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q9">
-        <v>100.0370949369728</v>
+        <v>114.96890643666</v>
       </c>
       <c r="R9">
-        <v>100.0370949369728</v>
+        <v>1034.72015792994</v>
       </c>
       <c r="S9">
-        <v>0.02540035102037302</v>
+        <v>0.02462329072268257</v>
       </c>
       <c r="T9">
-        <v>0.02540035102037302</v>
+        <v>0.02462329072268257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.9506446632915</v>
+        <v>21.406785</v>
       </c>
       <c r="H10">
-        <v>18.9506446632915</v>
+        <v>64.220355</v>
       </c>
       <c r="I10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443945</v>
       </c>
       <c r="J10">
-        <v>0.3884324976948879</v>
+        <v>0.3997326561443944</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N10">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q10">
-        <v>434.3051392793391</v>
+        <v>554.611773764245</v>
       </c>
       <c r="R10">
-        <v>434.3051392793391</v>
+        <v>4991.505963878205</v>
       </c>
       <c r="S10">
-        <v>0.1102741237597661</v>
+        <v>0.1187831333434783</v>
       </c>
       <c r="T10">
-        <v>0.1102741237597661</v>
+        <v>0.1187831333434782</v>
       </c>
     </row>
   </sheetData>
